--- a/Data/baseline_timing.xlsx
+++ b/Data/baseline_timing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eth\asl\team42\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eth\asl\team42\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0316FABB-01C7-4910-8D15-F4ED23C84CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6350D54-9723-4B45-BEB6-75C529BBEA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="3540" windowWidth="17220" windowHeight="8784" xr2:uid="{B1F9DB3D-A5ED-4CF3-8993-B9AA5F6B7807}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B1F9DB3D-A5ED-4CF3-8993-B9AA5F6B7807}"/>
   </bookViews>
   <sheets>
     <sheet name="baseline" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
   <si>
     <t>cycles</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,11 +51,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>radius = 0.4</t>
+    <t>CMAKE_CXX_FLAGS_RELEASE =/MD /O2 /Ob2 /DNDEBUG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CMAKE_CXX_FLAGS_RELEASE =/MD /O2 /Ob2 /DNDEBUG</t>
+    <t>radius = 0.4, no normal calculation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flops</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>performance[flop/cycle]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radius = 0.05, no normal calculation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radius=0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radius=0.05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -88,12 +108,92 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -102,20 +202,56 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -133,6 +269,1418 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Performance</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>for</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> baseline implementation</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>tested on Intel </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0"/>
+              <a:t>Core i7-7700HQ 2.8GHz</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Compiler</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>: MSVC 14.29.30133</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> Flags: /MD /O2 /Ob2 /DNDEBUG</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1050"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.2886482939632541E-2"/>
+          <c:y val="0.30650886626976503"/>
+          <c:w val="0.87755796150481191"/>
+          <c:h val="0.50916848046433216"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>baseline!$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>radius=0.4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>baseline!$J$5:$J$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>baseline!$K$5:$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.49748347858856862</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39495470769115798</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33688794262014748</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31416074310012626</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29461369017176064</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27888171284255747</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26503320751336201</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25505175736398827</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.24647103627791317</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2399613090061532</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-900E-420C-A463-E23C337E87A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>baseline!$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>radius=0.05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>baseline!$J$5:$J$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>baseline!$L$5:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.20779247932833639</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19008113507889787</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19620276958603941</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19475661614713657</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19591126502897765</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19501287501118031</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19518225405811335</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19439825946692643</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19491339731850818</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.19358716310804974</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-900E-420C-A463-E23C337E87A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="526523984"/>
+        <c:axId val="526520376"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="526523984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>MC grid resolution</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="526520376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="526520376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="526523984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.72448671887325566"/>
+          <c:y val="0.47425420907752391"/>
+          <c:w val="0.24363714269322892"/>
+          <c:h val="0.32774470264387684"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1699260</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{117C2F6B-242C-3198-050D-B59EEEB86B9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0.22567</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.2</cdr:x>
+      <cdr:y>0.559</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="文本框 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EECBD7F5-6EB2-6441-0030-BFEE2D2FBA16}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="846055"/>
+          <a:ext cx="1042416" cy="1249667"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>[flop/cycle]</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -432,179 +1980,757 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E252F772-8BFF-4763-82E2-BAB23D65FFF3}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView tabSelected="1" topLeftCell="H10" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.21875" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="1" max="1" width="24.21875" style="9" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" style="9" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="9" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="9"/>
+    <col min="5" max="5" width="24.109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="22.21875" style="9" customWidth="1"/>
+    <col min="8" max="9" width="24.88671875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" style="9" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" style="9" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="2" spans="1:3" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="16"/>
+      <c r="E1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:12" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="13"/>
+      <c r="E2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="13"/>
+      <c r="E3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7">
+        <v>51128.765625</v>
+      </c>
+      <c r="C5" s="3">
+        <f>B5/2800000000</f>
+        <v>1.82602734375E-5</v>
+      </c>
+      <c r="E5" s="7">
+        <v>10</v>
+      </c>
+      <c r="F5" s="7">
+        <v>82591.6875</v>
+      </c>
+      <c r="G5" s="9">
+        <v>41088</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" ref="H5:H14" si="0">G5/F5</f>
+        <v>0.49748347858856862</v>
+      </c>
+      <c r="J5" s="7">
+        <v>10</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0.49748347858856862</v>
+      </c>
+      <c r="L5" s="9">
+        <v>0.20779247932833639</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>20</v>
+      </c>
+      <c r="B6" s="7">
+        <v>361692.1875</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" ref="C6:C14" si="1">B6/2800000000</f>
+        <v>1.2917578125E-4</v>
+      </c>
+      <c r="E6" s="7">
+        <v>20</v>
+      </c>
+      <c r="F6" s="7">
+        <v>515188.1875</v>
+      </c>
+      <c r="G6" s="9">
+        <v>203476</v>
+      </c>
+      <c r="H6" s="9">
+        <f t="shared" si="0"/>
+        <v>0.39495470769115798</v>
+      </c>
+      <c r="J6" s="7">
+        <v>20</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0.39495470769115798</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0.19008113507889787</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>30</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1166483.5</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="1"/>
+        <v>4.1660124999999998E-4</v>
+      </c>
+      <c r="E7" s="7">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1556992.5</v>
+      </c>
+      <c r="G7" s="9">
+        <v>524532</v>
+      </c>
+      <c r="H7" s="9">
+        <f t="shared" si="0"/>
+        <v>0.33688794262014748</v>
+      </c>
+      <c r="J7" s="7">
+        <v>30</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0.33688794262014748</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0.19620276958603941</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>40</v>
+      </c>
+      <c r="B8" s="7">
+        <v>2722317.5</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="1"/>
+        <v>9.7225624999999999E-4</v>
+      </c>
+      <c r="E8" s="7">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7">
+        <v>3448795</v>
+      </c>
+      <c r="G8" s="9">
+        <v>1083476</v>
+      </c>
+      <c r="H8" s="9">
+        <f t="shared" si="0"/>
+        <v>0.31416074310012626</v>
+      </c>
+      <c r="J8" s="7">
+        <v>40</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0.31416074310012626</v>
+      </c>
+      <c r="L8" s="9">
+        <v>0.19475661614713657</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>50</v>
+      </c>
+      <c r="B9" s="7">
+        <v>5274927</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="1"/>
+        <v>1.8839025E-3</v>
+      </c>
+      <c r="E9" s="7">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7">
+        <v>6432790</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1895188</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="0"/>
+        <v>0.29461369017176064</v>
+      </c>
+      <c r="J9" s="7">
+        <v>50</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0.29461369017176064</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0.19591126502897765</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>60</v>
+      </c>
+      <c r="B10" s="7">
+        <v>9209319</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="1"/>
+        <v>3.2890425E-3</v>
+      </c>
+      <c r="E10" s="7">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7">
+        <v>10793006</v>
+      </c>
+      <c r="G10" s="9">
+        <v>3009972</v>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" si="0"/>
+        <v>0.27888171284255747</v>
+      </c>
+      <c r="J10" s="7">
+        <v>60</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0.27888171284255747</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0.19501287501118031</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>70</v>
+      </c>
+      <c r="B11" s="7">
+        <v>14464996</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="1"/>
+        <v>5.16607E-3</v>
+      </c>
+      <c r="E11" s="7">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7">
+        <v>16966040</v>
+      </c>
+      <c r="G11" s="9">
+        <v>4496564</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="0"/>
+        <v>0.26503320751336201</v>
+      </c>
+      <c r="J11" s="7">
+        <v>70</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0.26503320751336201</v>
+      </c>
+      <c r="L11" s="9">
+        <v>0.19518225405811335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>80</v>
+      </c>
+      <c r="B12" s="7">
+        <v>21505834</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="1"/>
+        <v>7.6806549999999998E-3</v>
+      </c>
+      <c r="E12" s="7">
+        <v>80</v>
+      </c>
+      <c r="F12" s="7">
+        <v>25109084</v>
+      </c>
+      <c r="G12" s="9">
+        <v>6404116</v>
+      </c>
+      <c r="H12" s="9">
+        <f t="shared" si="0"/>
+        <v>0.25505175736398827</v>
+      </c>
+      <c r="J12" s="7">
+        <v>80</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0.25505175736398827</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0.19439825946692643</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>90</v>
+      </c>
+      <c r="B13" s="7">
+        <v>31238102</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1156465000000001E-2</v>
+      </c>
+      <c r="E13" s="7">
+        <v>90</v>
+      </c>
+      <c r="F13" s="7">
+        <v>35401044</v>
+      </c>
+      <c r="G13" s="9">
+        <v>8725332</v>
+      </c>
+      <c r="H13" s="9">
+        <f t="shared" si="0"/>
+        <v>0.24647103627791317</v>
+      </c>
+      <c r="J13" s="7">
+        <v>90</v>
+      </c>
+      <c r="K13" s="9">
+        <v>0.24647103627791317</v>
+      </c>
+      <c r="L13" s="9">
+        <v>0.19491339731850818</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>100</v>
+      </c>
+      <c r="B14" s="5">
+        <v>42036106</v>
+      </c>
+      <c r="C14" s="6">
+        <f t="shared" si="1"/>
+        <v>1.5012895E-2</v>
+      </c>
+      <c r="E14" s="7">
+        <v>100</v>
+      </c>
+      <c r="F14" s="7">
+        <v>48375082</v>
+      </c>
+      <c r="G14" s="9">
+        <v>11608148</v>
+      </c>
+      <c r="H14" s="9">
+        <f t="shared" si="0"/>
+        <v>0.2399613090061532</v>
+      </c>
+      <c r="J14" s="7">
+        <v>100</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0.2399613090061532</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0.19358716310804974</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>10</v>
+      </c>
+      <c r="B17" s="7">
+        <v>72497.5234375</v>
+      </c>
+      <c r="C17" s="3">
+        <f>B17/2800000000</f>
+        <v>2.589197265625E-5</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>20</v>
+      </c>
+      <c r="B18" s="7">
+        <v>442937.6875</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" ref="C18:C26" si="2">B18/2800000000</f>
+        <v>1.5819203124999999E-4</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>30</v>
+      </c>
+      <c r="B19" s="7">
+        <v>1382871</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" si="2"/>
+        <v>4.9388250000000002E-4</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>40</v>
+      </c>
+      <c r="B20" s="7">
+        <v>3173744</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1334800000000001E-3</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="F20" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="G20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>50</v>
+      </c>
+      <c r="B21" s="7">
+        <v>6157865</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" si="2"/>
+        <v>2.1992374999999999E-3</v>
+      </c>
+      <c r="E21" s="7">
         <v>10</v>
       </c>
-      <c r="B5" s="1">
-        <v>72497.5234375</v>
-      </c>
-      <c r="C5" s="1">
-        <f>B5/2800000000</f>
-        <v>2.589197265625E-5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="F21" s="7">
+        <v>41849.4453125</v>
+      </c>
+      <c r="G21" s="9">
+        <v>8696</v>
+      </c>
+      <c r="H21" s="9">
+        <f t="shared" ref="H21:H30" si="3">G21/F21</f>
+        <v>0.20779247932833639</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>60</v>
+      </c>
+      <c r="B22" s="7">
+        <v>10515428</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" si="2"/>
+        <v>3.7555100000000001E-3</v>
+      </c>
+      <c r="E22" s="7">
         <v>20</v>
       </c>
-      <c r="B6" s="1">
-        <v>442937.6875</v>
-      </c>
-      <c r="C6" s="2">
-        <f t="shared" ref="C6:C14" si="0">B6/2800000000</f>
-        <v>1.5819203124999999E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="F22" s="7">
+        <v>343200.8125</v>
+      </c>
+      <c r="G22" s="9">
+        <v>65236</v>
+      </c>
+      <c r="H22" s="9">
+        <f t="shared" si="3"/>
+        <v>0.19008113507889787</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>70</v>
+      </c>
+      <c r="B23" s="7">
+        <v>16747290</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" si="2"/>
+        <v>5.981175E-3</v>
+      </c>
+      <c r="E23" s="7">
         <v>30</v>
       </c>
-      <c r="B7" s="1">
-        <v>1382871</v>
-      </c>
-      <c r="C7" s="2">
-        <f t="shared" si="0"/>
-        <v>4.9388250000000002E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="F23" s="7">
+        <v>1133806.625</v>
+      </c>
+      <c r="G23" s="9">
+        <v>222456</v>
+      </c>
+      <c r="H23" s="9">
+        <f t="shared" si="3"/>
+        <v>0.19620276958603941</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>80</v>
+      </c>
+      <c r="B24" s="7">
+        <v>25110078</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" si="2"/>
+        <v>8.9678850000000001E-3</v>
+      </c>
+      <c r="E24" s="7">
         <v>40</v>
       </c>
-      <c r="B8" s="1">
-        <v>3173744</v>
-      </c>
-      <c r="C8" s="2">
-        <f t="shared" si="0"/>
-        <v>1.1334800000000001E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="F24" s="7">
+        <v>2664844</v>
+      </c>
+      <c r="G24" s="9">
+        <v>518996</v>
+      </c>
+      <c r="H24" s="9">
+        <f t="shared" si="3"/>
+        <v>0.19475661614713657</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>90</v>
+      </c>
+      <c r="B25" s="7">
+        <v>35640598</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="2"/>
+        <v>1.2728784999999999E-2</v>
+      </c>
+      <c r="E25" s="7">
         <v>50</v>
       </c>
-      <c r="B9" s="1">
-        <v>6157865</v>
-      </c>
-      <c r="C9" s="2">
-        <f t="shared" si="0"/>
-        <v>2.1992374999999999E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="F25" s="7">
+        <v>5181407</v>
+      </c>
+      <c r="G25" s="9">
+        <v>1015096</v>
+      </c>
+      <c r="H25" s="9">
+        <f t="shared" si="3"/>
+        <v>0.19591126502897765</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>100</v>
+      </c>
+      <c r="B26" s="5">
+        <v>48838902</v>
+      </c>
+      <c r="C26" s="6">
+        <f t="shared" si="2"/>
+        <v>1.7442465000000001E-2</v>
+      </c>
+      <c r="E26" s="7">
         <v>60</v>
       </c>
-      <c r="B10" s="1">
-        <v>10515428</v>
-      </c>
-      <c r="C10" s="2">
-        <f t="shared" si="0"/>
-        <v>3.7555100000000001E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="F26" s="7">
+        <v>8921934</v>
+      </c>
+      <c r="G26" s="9">
+        <v>1739892</v>
+      </c>
+      <c r="H26" s="9">
+        <f t="shared" si="3"/>
+        <v>0.19501287501118031</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E27" s="7">
         <v>70</v>
       </c>
-      <c r="B11" s="1">
-        <v>16747290</v>
-      </c>
-      <c r="C11" s="2">
-        <f t="shared" si="0"/>
-        <v>5.981175E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="F27" s="7">
+        <v>14195020</v>
+      </c>
+      <c r="G27" s="9">
+        <v>2770616</v>
+      </c>
+      <c r="H27" s="9">
+        <f t="shared" si="3"/>
+        <v>0.19518225405811335</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E28" s="7">
         <v>80</v>
       </c>
-      <c r="B12" s="1">
-        <v>25110078</v>
-      </c>
-      <c r="C12" s="2">
-        <f t="shared" si="0"/>
-        <v>8.9678850000000001E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="F28" s="7">
+        <v>21239470</v>
+      </c>
+      <c r="G28" s="9">
+        <v>4128916</v>
+      </c>
+      <c r="H28" s="9">
+        <f t="shared" si="3"/>
+        <v>0.19439825946692643</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E29" s="7">
         <v>90</v>
       </c>
-      <c r="B13" s="1">
-        <v>35640598</v>
-      </c>
-      <c r="C13" s="2">
-        <f t="shared" si="0"/>
-        <v>1.2728784999999999E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="F29" s="7">
+        <v>30175740</v>
+      </c>
+      <c r="G29" s="9">
+        <v>5881656</v>
+      </c>
+      <c r="H29" s="9">
+        <f t="shared" si="3"/>
+        <v>0.19491339731850818</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E30" s="7">
         <v>100</v>
       </c>
-      <c r="B14" s="1">
-        <v>48838902</v>
-      </c>
-      <c r="C14" s="2">
-        <f t="shared" si="0"/>
-        <v>1.7442465000000001E-2</v>
+      <c r="F30" s="7">
+        <v>41575422</v>
+      </c>
+      <c r="G30" s="9">
+        <v>8048468</v>
+      </c>
+      <c r="H30" s="9">
+        <f t="shared" si="3"/>
+        <v>0.19358716310804974</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="9">
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Data/baseline_timing.xlsx
+++ b/Data/baseline_timing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eth\asl\team42\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6350D54-9723-4B45-BEB6-75C529BBEA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B730ACD3-6AEF-4892-AF01-6FCF25015E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B1F9DB3D-A5ED-4CF3-8993-B9AA5F6B7807}"/>
   </bookViews>
@@ -547,34 +547,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.49748347858856862</c:v>
+                  <c:v>0.41592563416263895</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.39495470769115798</c:v>
+                  <c:v>0.34059010718292138</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33688794262014748</c:v>
+                  <c:v>0.2970727219302598</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31416074310012626</c:v>
+                  <c:v>0.28098741734431881</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.29461369017176064</c:v>
+                  <c:v>0.26671040093023402</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.27888171284255747</c:v>
+                  <c:v>0.25509964508497446</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.26503320751336201</c:v>
+                  <c:v>0.24433633305120112</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.25505175736398827</c:v>
+                  <c:v>0.23666255606934924</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.24647103627791317</c:v>
+                  <c:v>0.23009253625401557</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2399613090061532</c:v>
+                  <c:v>0.22503445058759797</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -670,34 +670,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.20779247932833639</c:v>
+                  <c:v>0.20435157350689198</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19008113507889787</c:v>
+                  <c:v>0.18903218651325307</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19620276958603941</c:v>
+                  <c:v>0.19505971752458229</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.19475661614713657</c:v>
+                  <c:v>0.19418922833756871</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.19591126502897765</c:v>
+                  <c:v>0.19532763977043302</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.19501287501118031</c:v>
+                  <c:v>0.19471428504178578</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.19518225405811335</c:v>
+                  <c:v>0.19480691115616602</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.19439825946692643</c:v>
+                  <c:v>0.19408299736292856</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.19491339731850818</c:v>
+                  <c:v>0.19458412618878609</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.19358716310804974</c:v>
+                  <c:v>0.19334298037912881</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -745,7 +745,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -758,10 +758,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1050"/>
                   <a:t>MC grid resolution</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1050"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -778,7 +778,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -952,8 +952,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.72448671887325566"/>
-          <c:y val="0.47425420907752391"/>
+          <c:x val="0.72448676919770993"/>
+          <c:y val="0.40989106544608761"/>
           <c:w val="0.24363714269322892"/>
           <c:h val="0.32774470264387684"/>
         </c:manualLayout>
@@ -1982,8 +1982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E252F772-8BFF-4763-82E2-BAB23D65FFF3}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H10" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2095,20 +2095,20 @@
         <v>82591.6875</v>
       </c>
       <c r="G5" s="9">
-        <v>41088</v>
+        <v>34352</v>
       </c>
       <c r="H5" s="9">
         <f t="shared" ref="H5:H14" si="0">G5/F5</f>
-        <v>0.49748347858856862</v>
+        <v>0.41592563416263895</v>
       </c>
       <c r="J5" s="7">
         <v>10</v>
       </c>
       <c r="K5" s="9">
-        <v>0.49748347858856862</v>
+        <v>0.41592563416263895</v>
       </c>
       <c r="L5" s="9">
-        <v>0.20779247932833639</v>
+        <v>0.20435157350689198</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2129,20 +2129,20 @@
         <v>515188.1875</v>
       </c>
       <c r="G6" s="9">
-        <v>203476</v>
+        <v>175468</v>
       </c>
       <c r="H6" s="9">
         <f t="shared" si="0"/>
-        <v>0.39495470769115798</v>
+        <v>0.34059010718292138</v>
       </c>
       <c r="J6" s="7">
         <v>20</v>
       </c>
       <c r="K6" s="9">
-        <v>0.39495470769115798</v>
+        <v>0.34059010718292138</v>
       </c>
       <c r="L6" s="9">
-        <v>0.19008113507889787</v>
+        <v>0.18903218651325307</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2163,20 +2163,20 @@
         <v>1556992.5</v>
       </c>
       <c r="G7" s="9">
-        <v>524532</v>
+        <v>462540</v>
       </c>
       <c r="H7" s="9">
         <f t="shared" si="0"/>
-        <v>0.33688794262014748</v>
+        <v>0.2970727219302598</v>
       </c>
       <c r="J7" s="7">
         <v>30</v>
       </c>
       <c r="K7" s="9">
-        <v>0.33688794262014748</v>
+        <v>0.2970727219302598</v>
       </c>
       <c r="L7" s="9">
-        <v>0.19620276958603941</v>
+        <v>0.19505971752458229</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2197,20 +2197,20 @@
         <v>3448795</v>
       </c>
       <c r="G8" s="9">
-        <v>1083476</v>
+        <v>969068</v>
       </c>
       <c r="H8" s="9">
         <f t="shared" si="0"/>
-        <v>0.31416074310012626</v>
+        <v>0.28098741734431881</v>
       </c>
       <c r="J8" s="7">
         <v>40</v>
       </c>
       <c r="K8" s="9">
-        <v>0.31416074310012626</v>
+        <v>0.28098741734431881</v>
       </c>
       <c r="L8" s="9">
-        <v>0.19475661614713657</v>
+        <v>0.19418922833756871</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2231,20 +2231,20 @@
         <v>6432790</v>
       </c>
       <c r="G9" s="9">
-        <v>1895188</v>
+        <v>1715692</v>
       </c>
       <c r="H9" s="9">
         <f t="shared" si="0"/>
-        <v>0.29461369017176064</v>
+        <v>0.26671040093023402</v>
       </c>
       <c r="J9" s="7">
         <v>50</v>
       </c>
       <c r="K9" s="9">
-        <v>0.29461369017176064</v>
+        <v>0.26671040093023402</v>
       </c>
       <c r="L9" s="9">
-        <v>0.19591126502897765</v>
+        <v>0.19532763977043302</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -2265,20 +2265,20 @@
         <v>10793006</v>
       </c>
       <c r="G10" s="9">
-        <v>3009972</v>
+        <v>2753292</v>
       </c>
       <c r="H10" s="9">
         <f t="shared" si="0"/>
-        <v>0.27888171284255747</v>
+        <v>0.25509964508497446</v>
       </c>
       <c r="J10" s="7">
         <v>60</v>
       </c>
       <c r="K10" s="9">
-        <v>0.27888171284255747</v>
+        <v>0.25509964508497446</v>
       </c>
       <c r="L10" s="9">
-        <v>0.19501287501118031</v>
+        <v>0.19471428504178578</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -2299,20 +2299,20 @@
         <v>16966040</v>
       </c>
       <c r="G11" s="9">
-        <v>4496564</v>
+        <v>4145420</v>
       </c>
       <c r="H11" s="9">
         <f t="shared" si="0"/>
-        <v>0.26503320751336201</v>
+        <v>0.24433633305120112</v>
       </c>
       <c r="J11" s="7">
         <v>70</v>
       </c>
       <c r="K11" s="9">
-        <v>0.26503320751336201</v>
+        <v>0.24433633305120112</v>
       </c>
       <c r="L11" s="9">
-        <v>0.19518225405811335</v>
+        <v>0.19480691115616602</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -2333,20 +2333,20 @@
         <v>25109084</v>
       </c>
       <c r="G12" s="9">
-        <v>6404116</v>
+        <v>5942380</v>
       </c>
       <c r="H12" s="9">
         <f t="shared" si="0"/>
-        <v>0.25505175736398827</v>
+        <v>0.23666255606934924</v>
       </c>
       <c r="J12" s="7">
         <v>80</v>
       </c>
       <c r="K12" s="9">
-        <v>0.25505175736398827</v>
+        <v>0.23666255606934924</v>
       </c>
       <c r="L12" s="9">
-        <v>0.19439825946692643</v>
+        <v>0.19408299736292856</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -2367,20 +2367,20 @@
         <v>35401044</v>
       </c>
       <c r="G13" s="9">
-        <v>8725332</v>
+        <v>8145516</v>
       </c>
       <c r="H13" s="9">
         <f t="shared" si="0"/>
-        <v>0.24647103627791317</v>
+        <v>0.23009253625401557</v>
       </c>
       <c r="J13" s="7">
         <v>90</v>
       </c>
       <c r="K13" s="9">
-        <v>0.24647103627791317</v>
+        <v>0.23009253625401557</v>
       </c>
       <c r="L13" s="9">
-        <v>0.19491339731850818</v>
+        <v>0.19458412618878609</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -2401,20 +2401,20 @@
         <v>48375082</v>
       </c>
       <c r="G14" s="9">
-        <v>11608148</v>
+        <v>10886060</v>
       </c>
       <c r="H14" s="9">
         <f t="shared" si="0"/>
-        <v>0.2399613090061532</v>
+        <v>0.22503445058759797</v>
       </c>
       <c r="J14" s="7">
         <v>100</v>
       </c>
       <c r="K14" s="9">
-        <v>0.2399613090061532</v>
+        <v>0.22503445058759797</v>
       </c>
       <c r="L14" s="9">
-        <v>0.19358716310804974</v>
+        <v>0.19334298037912881</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -2524,11 +2524,11 @@
         <v>41849.4453125</v>
       </c>
       <c r="G21" s="9">
-        <v>8696</v>
+        <v>8552</v>
       </c>
       <c r="H21" s="9">
         <f t="shared" ref="H21:H30" si="3">G21/F21</f>
-        <v>0.20779247932833639</v>
+        <v>0.20435157350689198</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2549,11 +2549,11 @@
         <v>343200.8125</v>
       </c>
       <c r="G22" s="9">
-        <v>65236</v>
+        <v>64876</v>
       </c>
       <c r="H22" s="9">
         <f t="shared" si="3"/>
-        <v>0.19008113507889787</v>
+        <v>0.18903218651325307</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2574,11 +2574,11 @@
         <v>1133806.625</v>
       </c>
       <c r="G23" s="9">
-        <v>222456</v>
+        <v>221160</v>
       </c>
       <c r="H23" s="9">
         <f t="shared" si="3"/>
-        <v>0.19620276958603941</v>
+        <v>0.19505971752458229</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2599,11 +2599,11 @@
         <v>2664844</v>
       </c>
       <c r="G24" s="9">
-        <v>518996</v>
+        <v>517484</v>
       </c>
       <c r="H24" s="9">
         <f t="shared" si="3"/>
-        <v>0.19475661614713657</v>
+        <v>0.19418922833756871</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2624,11 +2624,11 @@
         <v>5181407</v>
       </c>
       <c r="G25" s="9">
-        <v>1015096</v>
+        <v>1012072</v>
       </c>
       <c r="H25" s="9">
         <f t="shared" si="3"/>
-        <v>0.19591126502897765</v>
+        <v>0.19532763977043302</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -2649,11 +2649,11 @@
         <v>8921934</v>
       </c>
       <c r="G26" s="9">
-        <v>1739892</v>
+        <v>1737228</v>
       </c>
       <c r="H26" s="9">
         <f t="shared" si="3"/>
-        <v>0.19501287501118031</v>
+        <v>0.19471428504178578</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2664,11 +2664,11 @@
         <v>14195020</v>
       </c>
       <c r="G27" s="9">
-        <v>2770616</v>
+        <v>2765288</v>
       </c>
       <c r="H27" s="9">
         <f t="shared" si="3"/>
-        <v>0.19518225405811335</v>
+        <v>0.19480691115616602</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2679,11 +2679,11 @@
         <v>21239470</v>
       </c>
       <c r="G28" s="9">
-        <v>4128916</v>
+        <v>4122220</v>
       </c>
       <c r="H28" s="9">
         <f t="shared" si="3"/>
-        <v>0.19439825946692643</v>
+        <v>0.19408299736292856</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2694,11 +2694,11 @@
         <v>30175740</v>
       </c>
       <c r="G29" s="9">
-        <v>5881656</v>
+        <v>5871720</v>
       </c>
       <c r="H29" s="9">
         <f t="shared" si="3"/>
-        <v>0.19491339731850818</v>
+        <v>0.19458412618878609</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2709,11 +2709,11 @@
         <v>41575422</v>
       </c>
       <c r="G30" s="9">
-        <v>8048468</v>
+        <v>8038316</v>
       </c>
       <c r="H30" s="9">
         <f t="shared" si="3"/>
-        <v>0.19358716310804974</v>
+        <v>0.19334298037912881</v>
       </c>
     </row>
   </sheetData>

--- a/Data/baseline_timing.xlsx
+++ b/Data/baseline_timing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eth\asl\team42\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B730ACD3-6AEF-4892-AF01-6FCF25015E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCD183F-1455-43EE-A7C9-3C4EACAB3D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B1F9DB3D-A5ED-4CF3-8993-B9AA5F6B7807}"/>
   </bookViews>
@@ -547,34 +547,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.41592563416263895</c:v>
+                  <c:v>0.37262829870136749</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34059010718292138</c:v>
+                  <c:v>0.31310500495510679</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2970727219302598</c:v>
+                  <c:v>0.27687994643519476</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.28098741734431881</c:v>
+                  <c:v>0.26435552127627188</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.26671040093023402</c:v>
+                  <c:v>0.2526449643156391</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.25509964508497446</c:v>
+                  <c:v>0.24316747345456863</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.24433633305120112</c:v>
+                  <c:v>0.23392777572138224</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.23666255606934924</c:v>
+                  <c:v>0.22746174253110946</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.23009253625401557</c:v>
+                  <c:v>0.2218500674725864</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.22503445058759797</c:v>
+                  <c:v>0.21755588962102432</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -670,34 +670,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.20435157350689198</c:v>
+                  <c:v>0.20320460489974385</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18903218651325307</c:v>
+                  <c:v>0.18805316785198462</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19505971752458229</c:v>
+                  <c:v>0.19450935912462144</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.19418922833756871</c:v>
+                  <c:v>0.19384699442068654</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.19532763977043302</c:v>
+                  <c:v>0.19504045908765708</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.19471428504178578</c:v>
+                  <c:v>0.19451522506218943</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.19480691115616602</c:v>
+                  <c:v>0.19462093043898493</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.19408299736292856</c:v>
+                  <c:v>0.19391802149488666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.19458412618878609</c:v>
+                  <c:v>0.19442028596481808</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.19334298037912881</c:v>
+                  <c:v>0.19320328245856411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -996,12 +996,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1982,8 +1977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E252F772-8BFF-4763-82E2-BAB23D65FFF3}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5:L14"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2095,20 +2090,20 @@
         <v>82591.6875</v>
       </c>
       <c r="G5" s="9">
-        <v>34352</v>
+        <v>30776</v>
       </c>
       <c r="H5" s="9">
         <f t="shared" ref="H5:H14" si="0">G5/F5</f>
-        <v>0.41592563416263895</v>
+        <v>0.37262829870136749</v>
       </c>
       <c r="J5" s="7">
         <v>10</v>
       </c>
       <c r="K5" s="9">
-        <v>0.41592563416263895</v>
+        <v>0.37262829870136749</v>
       </c>
       <c r="L5" s="9">
-        <v>0.20435157350689198</v>
+        <v>0.20320460489974385</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2129,20 +2124,20 @@
         <v>515188.1875</v>
       </c>
       <c r="G6" s="9">
-        <v>175468</v>
+        <v>161308</v>
       </c>
       <c r="H6" s="9">
         <f t="shared" si="0"/>
-        <v>0.34059010718292138</v>
+        <v>0.31310500495510679</v>
       </c>
       <c r="J6" s="7">
         <v>20</v>
       </c>
       <c r="K6" s="9">
-        <v>0.34059010718292138</v>
+        <v>0.31310500495510679</v>
       </c>
       <c r="L6" s="9">
-        <v>0.18903218651325307</v>
+        <v>0.18805316785198462</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2163,20 +2158,20 @@
         <v>1556992.5</v>
       </c>
       <c r="G7" s="9">
-        <v>462540</v>
+        <v>431100</v>
       </c>
       <c r="H7" s="9">
         <f t="shared" si="0"/>
-        <v>0.2970727219302598</v>
+        <v>0.27687994643519476</v>
       </c>
       <c r="J7" s="7">
         <v>30</v>
       </c>
       <c r="K7" s="9">
-        <v>0.2970727219302598</v>
+        <v>0.27687994643519476</v>
       </c>
       <c r="L7" s="9">
-        <v>0.19505971752458229</v>
+        <v>0.19450935912462144</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2197,20 +2192,20 @@
         <v>3448795</v>
       </c>
       <c r="G8" s="9">
-        <v>969068</v>
+        <v>911708</v>
       </c>
       <c r="H8" s="9">
         <f t="shared" si="0"/>
-        <v>0.28098741734431881</v>
+        <v>0.26435552127627188</v>
       </c>
       <c r="J8" s="7">
         <v>40</v>
       </c>
       <c r="K8" s="9">
-        <v>0.28098741734431881</v>
+        <v>0.26435552127627188</v>
       </c>
       <c r="L8" s="9">
-        <v>0.19418922833756871</v>
+        <v>0.19384699442068654</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2231,20 +2226,20 @@
         <v>6432790</v>
       </c>
       <c r="G9" s="9">
-        <v>1715692</v>
+        <v>1625212</v>
       </c>
       <c r="H9" s="9">
         <f t="shared" si="0"/>
-        <v>0.26671040093023402</v>
+        <v>0.2526449643156391</v>
       </c>
       <c r="J9" s="7">
         <v>50</v>
       </c>
       <c r="K9" s="9">
-        <v>0.26671040093023402</v>
+        <v>0.2526449643156391</v>
       </c>
       <c r="L9" s="9">
-        <v>0.19532763977043302</v>
+        <v>0.19504045908765708</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -2265,20 +2260,20 @@
         <v>10793006</v>
       </c>
       <c r="G10" s="9">
-        <v>2753292</v>
+        <v>2624508</v>
       </c>
       <c r="H10" s="9">
         <f t="shared" si="0"/>
-        <v>0.25509964508497446</v>
+        <v>0.24316747345456863</v>
       </c>
       <c r="J10" s="7">
         <v>60</v>
       </c>
       <c r="K10" s="9">
-        <v>0.25509964508497446</v>
+        <v>0.24316747345456863</v>
       </c>
       <c r="L10" s="9">
-        <v>0.19471428504178578</v>
+        <v>0.19451522506218943</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -2299,20 +2294,20 @@
         <v>16966040</v>
       </c>
       <c r="G11" s="9">
-        <v>4145420</v>
+        <v>3968828</v>
       </c>
       <c r="H11" s="9">
         <f t="shared" si="0"/>
-        <v>0.24433633305120112</v>
+        <v>0.23392777572138224</v>
       </c>
       <c r="J11" s="7">
         <v>70</v>
       </c>
       <c r="K11" s="9">
-        <v>0.24433633305120112</v>
+        <v>0.23392777572138224</v>
       </c>
       <c r="L11" s="9">
-        <v>0.19480691115616602</v>
+        <v>0.19462093043898493</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -2333,20 +2328,20 @@
         <v>25109084</v>
       </c>
       <c r="G12" s="9">
-        <v>5942380</v>
+        <v>5711356</v>
       </c>
       <c r="H12" s="9">
         <f t="shared" si="0"/>
-        <v>0.23666255606934924</v>
+        <v>0.22746174253110946</v>
       </c>
       <c r="J12" s="7">
         <v>80</v>
       </c>
       <c r="K12" s="9">
-        <v>0.23666255606934924</v>
+        <v>0.22746174253110946</v>
       </c>
       <c r="L12" s="9">
-        <v>0.19408299736292856</v>
+        <v>0.19391802149488666</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -2367,20 +2362,20 @@
         <v>35401044</v>
       </c>
       <c r="G13" s="9">
-        <v>8145516</v>
+        <v>7853724</v>
       </c>
       <c r="H13" s="9">
         <f t="shared" si="0"/>
-        <v>0.23009253625401557</v>
+        <v>0.2218500674725864</v>
       </c>
       <c r="J13" s="7">
         <v>90</v>
       </c>
       <c r="K13" s="9">
-        <v>0.23009253625401557</v>
+        <v>0.2218500674725864</v>
       </c>
       <c r="L13" s="9">
-        <v>0.19458412618878609</v>
+        <v>0.19442028596481808</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -2401,20 +2396,20 @@
         <v>48375082</v>
       </c>
       <c r="G14" s="9">
-        <v>10886060</v>
+        <v>10524284</v>
       </c>
       <c r="H14" s="9">
         <f t="shared" si="0"/>
-        <v>0.22503445058759797</v>
+        <v>0.21755588962102432</v>
       </c>
       <c r="J14" s="7">
         <v>100</v>
       </c>
       <c r="K14" s="9">
-        <v>0.22503445058759797</v>
+        <v>0.21755588962102432</v>
       </c>
       <c r="L14" s="9">
-        <v>0.19334298037912881</v>
+        <v>0.19320328245856411</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -2524,11 +2519,11 @@
         <v>41849.4453125</v>
       </c>
       <c r="G21" s="9">
-        <v>8552</v>
+        <v>8504</v>
       </c>
       <c r="H21" s="9">
         <f t="shared" ref="H21:H30" si="3">G21/F21</f>
-        <v>0.20435157350689198</v>
+        <v>0.20320460489974385</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2549,11 +2544,11 @@
         <v>343200.8125</v>
       </c>
       <c r="G22" s="9">
-        <v>64876</v>
+        <v>64540</v>
       </c>
       <c r="H22" s="9">
         <f t="shared" si="3"/>
-        <v>0.18903218651325307</v>
+        <v>0.18805316785198462</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2574,11 +2569,11 @@
         <v>1133806.625</v>
       </c>
       <c r="G23" s="9">
-        <v>221160</v>
+        <v>220536</v>
       </c>
       <c r="H23" s="9">
         <f t="shared" si="3"/>
-        <v>0.19505971752458229</v>
+        <v>0.19450935912462144</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2599,11 +2594,11 @@
         <v>2664844</v>
       </c>
       <c r="G24" s="9">
-        <v>517484</v>
+        <v>516572</v>
       </c>
       <c r="H24" s="9">
         <f t="shared" si="3"/>
-        <v>0.19418922833756871</v>
+        <v>0.19384699442068654</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2624,11 +2619,11 @@
         <v>5181407</v>
       </c>
       <c r="G25" s="9">
-        <v>1012072</v>
+        <v>1010584</v>
       </c>
       <c r="H25" s="9">
         <f t="shared" si="3"/>
-        <v>0.19532763977043302</v>
+        <v>0.19504045908765708</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -2649,11 +2644,11 @@
         <v>8921934</v>
       </c>
       <c r="G26" s="9">
-        <v>1737228</v>
+        <v>1735452</v>
       </c>
       <c r="H26" s="9">
         <f t="shared" si="3"/>
-        <v>0.19471428504178578</v>
+        <v>0.19451522506218943</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2664,11 +2659,11 @@
         <v>14195020</v>
       </c>
       <c r="G27" s="9">
-        <v>2765288</v>
+        <v>2762648</v>
       </c>
       <c r="H27" s="9">
         <f t="shared" si="3"/>
-        <v>0.19480691115616602</v>
+        <v>0.19462093043898493</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2679,11 +2674,11 @@
         <v>21239470</v>
       </c>
       <c r="G28" s="9">
-        <v>4122220</v>
+        <v>4118716</v>
       </c>
       <c r="H28" s="9">
         <f t="shared" si="3"/>
-        <v>0.19408299736292856</v>
+        <v>0.19391802149488666</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2694,11 +2689,11 @@
         <v>30175740</v>
       </c>
       <c r="G29" s="9">
-        <v>5871720</v>
+        <v>5866776</v>
       </c>
       <c r="H29" s="9">
         <f t="shared" si="3"/>
-        <v>0.19458412618878609</v>
+        <v>0.19442028596481808</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2709,11 +2704,11 @@
         <v>41575422</v>
       </c>
       <c r="G30" s="9">
-        <v>8038316</v>
+        <v>8032508</v>
       </c>
       <c r="H30" s="9">
         <f t="shared" si="3"/>
-        <v>0.19334298037912881</v>
+        <v>0.19320328245856411</v>
       </c>
     </row>
   </sheetData>
